--- a/database3.xlsx
+++ b/database3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12599\PetriPlanets\PetriPlanets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\12599\PetriPlanets\PetriPlanets_flask\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B5E5A1-35E1-4851-B56B-A7BC7FA00BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C6CAFC-2A96-4EE1-B927-100BB9222F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>stories</t>
-  </si>
-  <si>
-    <t>Primus</t>
   </si>
   <si>
     <t>https://lh6.googleusercontent.com/4_6VgpOtMCGbUqZhICJTlYb11enH9R8Xk8c01jHdIgNWcHNJqKk-OUeA8md0iik-HHY=w2400</t>
@@ -2220,6 +2217,9 @@
   </si>
   <si>
     <t>The planet Tuza is home to a variety of intelligent beings. The most common are the Tuza, a race of humanoids with green skin. They are a peaceful people who have a deep respect for nature. They live in harmony with the other races on their planet and are known for their healing abilities. Other races on Tuza include the Zora, a race of bird-like beings, and the Reptoids, a race of intelligent reptiles.</t>
+  </si>
+  <si>
+    <t>Primus (colonized 🏴)</t>
   </si>
 </sst>
 </file>
@@ -2585,8 +2585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
-      <selection activeCell="B202" sqref="B202"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2607,13 +2607,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>598</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -2621,13 +2621,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -2635,13 +2635,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2649,13 +2649,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -2663,13 +2663,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2677,13 +2677,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2691,13 +2691,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
         <v>21</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2705,13 +2705,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -2719,13 +2719,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
         <v>27</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>28</v>
-      </c>
-      <c r="D10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -2733,13 +2733,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>31</v>
-      </c>
-      <c r="D11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -2747,13 +2747,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
         <v>33</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>34</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -2761,13 +2761,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
         <v>36</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>37</v>
-      </c>
-      <c r="D13" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -2775,13 +2775,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
         <v>39</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>40</v>
-      </c>
-      <c r="D14" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -2789,13 +2789,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" t="s">
         <v>42</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>43</v>
-      </c>
-      <c r="D15" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -2803,13 +2803,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
         <v>45</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>46</v>
-      </c>
-      <c r="D16" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -2817,13 +2817,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" t="s">
         <v>48</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>49</v>
-      </c>
-      <c r="D17" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -2831,13 +2831,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
         <v>51</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>52</v>
-      </c>
-      <c r="D18" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -2845,13 +2845,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" t="s">
         <v>54</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>55</v>
-      </c>
-      <c r="D19" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -2859,13 +2859,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s">
         <v>57</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>58</v>
-      </c>
-      <c r="D20" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -2873,13 +2873,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
         <v>60</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>61</v>
-      </c>
-      <c r="D21" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -2887,13 +2887,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" t="s">
         <v>63</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>64</v>
-      </c>
-      <c r="D22" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -2901,13 +2901,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
         <v>66</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>67</v>
-      </c>
-      <c r="D23" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -2915,13 +2915,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" t="s">
         <v>69</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>70</v>
-      </c>
-      <c r="D24" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -2929,13 +2929,13 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" t="s">
         <v>72</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>73</v>
-      </c>
-      <c r="D25" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -2943,13 +2943,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
         <v>75</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>76</v>
-      </c>
-      <c r="D26" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -2957,13 +2957,13 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" t="s">
         <v>78</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>79</v>
-      </c>
-      <c r="D27" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -2971,13 +2971,13 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s">
         <v>81</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>82</v>
-      </c>
-      <c r="D28" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -2985,13 +2985,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" t="s">
         <v>84</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>85</v>
-      </c>
-      <c r="D29" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -2999,13 +2999,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" t="s">
         <v>87</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>88</v>
-      </c>
-      <c r="D30" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -3013,13 +3013,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C31" t="s">
         <v>90</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>91</v>
-      </c>
-      <c r="D31" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -3027,13 +3027,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C32" t="s">
         <v>93</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>94</v>
-      </c>
-      <c r="D32" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -3041,13 +3041,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C33" t="s">
         <v>96</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>97</v>
-      </c>
-      <c r="D33" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -3055,13 +3055,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" t="s">
         <v>99</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>100</v>
-      </c>
-      <c r="D34" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -3069,13 +3069,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
+        <v>101</v>
+      </c>
+      <c r="C35" t="s">
         <v>102</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>103</v>
-      </c>
-      <c r="D35" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -3083,13 +3083,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" t="s">
         <v>105</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>106</v>
-      </c>
-      <c r="D36" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -3097,13 +3097,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" t="s">
         <v>108</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D37" t="s">
         <v>109</v>
-      </c>
-      <c r="D37" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
@@ -3111,13 +3111,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" t="s">
         <v>111</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>112</v>
-      </c>
-      <c r="D38" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
@@ -3125,13 +3125,13 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" t="s">
         <v>114</v>
       </c>
-      <c r="C39" t="s">
+      <c r="D39" t="s">
         <v>115</v>
-      </c>
-      <c r="D39" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
@@ -3139,13 +3139,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" t="s">
         <v>117</v>
       </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
         <v>118</v>
-      </c>
-      <c r="D40" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
@@ -3153,13 +3153,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
+        <v>119</v>
+      </c>
+      <c r="C41" t="s">
         <v>120</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
         <v>121</v>
-      </c>
-      <c r="D41" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
@@ -3167,13 +3167,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" t="s">
         <v>123</v>
       </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>124</v>
-      </c>
-      <c r="D42" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
@@ -3181,13 +3181,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
+        <v>125</v>
+      </c>
+      <c r="C43" t="s">
         <v>126</v>
       </c>
-      <c r="C43" t="s">
+      <c r="D43" t="s">
         <v>127</v>
-      </c>
-      <c r="D43" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
@@ -3195,13 +3195,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" t="s">
         <v>129</v>
       </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
         <v>130</v>
-      </c>
-      <c r="D44" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
@@ -3209,13 +3209,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" t="s">
         <v>132</v>
       </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
         <v>133</v>
-      </c>
-      <c r="D45" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
@@ -3223,13 +3223,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
+        <v>134</v>
+      </c>
+      <c r="C46" t="s">
         <v>135</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D46" t="s">
         <v>136</v>
-      </c>
-      <c r="D46" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -3237,13 +3237,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
+        <v>137</v>
+      </c>
+      <c r="C47" t="s">
         <v>138</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" t="s">
         <v>139</v>
-      </c>
-      <c r="D47" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -3251,13 +3251,13 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
+        <v>140</v>
+      </c>
+      <c r="C48" t="s">
         <v>141</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D48" t="s">
         <v>142</v>
-      </c>
-      <c r="D48" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -3265,13 +3265,13 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
+        <v>143</v>
+      </c>
+      <c r="C49" t="s">
         <v>144</v>
       </c>
-      <c r="C49" t="s">
+      <c r="D49" t="s">
         <v>145</v>
-      </c>
-      <c r="D49" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
@@ -3279,13 +3279,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
+        <v>146</v>
+      </c>
+      <c r="C50" t="s">
         <v>147</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" t="s">
         <v>148</v>
-      </c>
-      <c r="D50" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
@@ -3293,13 +3293,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51" t="s">
         <v>150</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>151</v>
-      </c>
-      <c r="D51" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
@@ -3307,13 +3307,13 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
+        <v>152</v>
+      </c>
+      <c r="C52" t="s">
         <v>153</v>
       </c>
-      <c r="C52" t="s">
+      <c r="D52" t="s">
         <v>154</v>
-      </c>
-      <c r="D52" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
@@ -3321,13 +3321,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
+        <v>155</v>
+      </c>
+      <c r="C53" t="s">
         <v>156</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>157</v>
-      </c>
-      <c r="D53" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
@@ -3335,13 +3335,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
+        <v>158</v>
+      </c>
+      <c r="C54" t="s">
         <v>159</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D54" t="s">
         <v>160</v>
-      </c>
-      <c r="D54" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
@@ -3349,13 +3349,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" t="s">
         <v>162</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>163</v>
-      </c>
-      <c r="D55" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
@@ -3363,13 +3363,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
+        <v>164</v>
+      </c>
+      <c r="C56" t="s">
         <v>165</v>
       </c>
-      <c r="C56" t="s">
+      <c r="D56" t="s">
         <v>166</v>
-      </c>
-      <c r="D56" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
@@ -3377,13 +3377,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
+        <v>167</v>
+      </c>
+      <c r="C57" t="s">
         <v>168</v>
       </c>
-      <c r="C57" t="s">
+      <c r="D57" t="s">
         <v>169</v>
-      </c>
-      <c r="D57" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
@@ -3391,13 +3391,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
+        <v>170</v>
+      </c>
+      <c r="C58" t="s">
         <v>171</v>
       </c>
-      <c r="C58" t="s">
+      <c r="D58" t="s">
         <v>172</v>
-      </c>
-      <c r="D58" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
@@ -3405,13 +3405,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
+        <v>173</v>
+      </c>
+      <c r="C59" t="s">
         <v>174</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D59" t="s">
         <v>175</v>
-      </c>
-      <c r="D59" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
@@ -3419,13 +3419,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
+        <v>176</v>
+      </c>
+      <c r="C60" t="s">
         <v>177</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D60" t="s">
         <v>178</v>
-      </c>
-      <c r="D60" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
@@ -3433,13 +3433,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
+        <v>179</v>
+      </c>
+      <c r="C61" t="s">
         <v>180</v>
       </c>
-      <c r="C61" t="s">
+      <c r="D61" t="s">
         <v>181</v>
-      </c>
-      <c r="D61" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
@@ -3447,13 +3447,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
+        <v>182</v>
+      </c>
+      <c r="C62" t="s">
         <v>183</v>
       </c>
-      <c r="C62" t="s">
+      <c r="D62" t="s">
         <v>184</v>
-      </c>
-      <c r="D62" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
@@ -3461,13 +3461,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
+        <v>185</v>
+      </c>
+      <c r="C63" t="s">
         <v>186</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>187</v>
-      </c>
-      <c r="D63" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
@@ -3475,13 +3475,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
+        <v>188</v>
+      </c>
+      <c r="C64" t="s">
         <v>189</v>
       </c>
-      <c r="C64" t="s">
+      <c r="D64" t="s">
         <v>190</v>
-      </c>
-      <c r="D64" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
@@ -3489,13 +3489,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
+        <v>191</v>
+      </c>
+      <c r="C65" t="s">
         <v>192</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>193</v>
-      </c>
-      <c r="D65" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
@@ -3503,13 +3503,13 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
+        <v>194</v>
+      </c>
+      <c r="C66" t="s">
         <v>195</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>196</v>
-      </c>
-      <c r="D66" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
@@ -3517,13 +3517,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
+        <v>197</v>
+      </c>
+      <c r="C67" t="s">
         <v>198</v>
       </c>
-      <c r="C67" t="s">
+      <c r="D67" t="s">
         <v>199</v>
-      </c>
-      <c r="D67" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
@@ -3531,13 +3531,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
+        <v>200</v>
+      </c>
+      <c r="C68" t="s">
         <v>201</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>202</v>
-      </c>
-      <c r="D68" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
@@ -3545,13 +3545,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
+        <v>203</v>
+      </c>
+      <c r="C69" t="s">
         <v>204</v>
       </c>
-      <c r="C69" t="s">
+      <c r="D69" t="s">
         <v>205</v>
-      </c>
-      <c r="D69" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
@@ -3559,13 +3559,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C70" t="s">
         <v>207</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>208</v>
-      </c>
-      <c r="D70" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
@@ -3573,13 +3573,13 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
+        <v>209</v>
+      </c>
+      <c r="C71" t="s">
         <v>210</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>211</v>
-      </c>
-      <c r="D71" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
@@ -3587,13 +3587,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
+        <v>212</v>
+      </c>
+      <c r="C72" t="s">
         <v>213</v>
       </c>
-      <c r="C72" t="s">
+      <c r="D72" t="s">
         <v>214</v>
-      </c>
-      <c r="D72" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
@@ -3601,13 +3601,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
+        <v>215</v>
+      </c>
+      <c r="C73" t="s">
         <v>216</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>217</v>
-      </c>
-      <c r="D73" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
@@ -3615,13 +3615,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
+        <v>218</v>
+      </c>
+      <c r="C74" t="s">
         <v>219</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>220</v>
-      </c>
-      <c r="D74" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
@@ -3629,13 +3629,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
+        <v>221</v>
+      </c>
+      <c r="C75" t="s">
         <v>222</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>223</v>
-      </c>
-      <c r="D75" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -3643,13 +3643,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
+        <v>224</v>
+      </c>
+      <c r="C76" t="s">
         <v>225</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>226</v>
-      </c>
-      <c r="D76" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
@@ -3657,13 +3657,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
+        <v>227</v>
+      </c>
+      <c r="C77" t="s">
         <v>228</v>
       </c>
-      <c r="C77" t="s">
+      <c r="D77" t="s">
         <v>229</v>
-      </c>
-      <c r="D77" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
@@ -3671,13 +3671,13 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
+        <v>230</v>
+      </c>
+      <c r="C78" t="s">
         <v>231</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>232</v>
-      </c>
-      <c r="D78" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
@@ -3685,13 +3685,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
+        <v>233</v>
+      </c>
+      <c r="C79" t="s">
         <v>234</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>235</v>
-      </c>
-      <c r="D79" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
@@ -3699,13 +3699,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
+        <v>236</v>
+      </c>
+      <c r="C80" t="s">
         <v>237</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>238</v>
-      </c>
-      <c r="D80" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
@@ -3713,13 +3713,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
+        <v>239</v>
+      </c>
+      <c r="C81" t="s">
         <v>240</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>241</v>
-      </c>
-      <c r="D81" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
@@ -3727,13 +3727,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
+        <v>242</v>
+      </c>
+      <c r="C82" t="s">
         <v>243</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>244</v>
-      </c>
-      <c r="D82" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
@@ -3741,13 +3741,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
+        <v>245</v>
+      </c>
+      <c r="C83" t="s">
         <v>246</v>
       </c>
-      <c r="C83" t="s">
+      <c r="D83" t="s">
         <v>247</v>
-      </c>
-      <c r="D83" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
@@ -3755,13 +3755,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
+        <v>248</v>
+      </c>
+      <c r="C84" t="s">
         <v>249</v>
       </c>
-      <c r="C84" t="s">
+      <c r="D84" t="s">
         <v>250</v>
-      </c>
-      <c r="D84" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
@@ -3769,13 +3769,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
+        <v>251</v>
+      </c>
+      <c r="C85" t="s">
         <v>252</v>
       </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
         <v>253</v>
-      </c>
-      <c r="D85" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
@@ -3783,13 +3783,13 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
+        <v>254</v>
+      </c>
+      <c r="C86" t="s">
         <v>255</v>
       </c>
-      <c r="C86" t="s">
+      <c r="D86" t="s">
         <v>256</v>
-      </c>
-      <c r="D86" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
@@ -3797,13 +3797,13 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
+        <v>257</v>
+      </c>
+      <c r="C87" t="s">
         <v>258</v>
       </c>
-      <c r="C87" t="s">
+      <c r="D87" t="s">
         <v>259</v>
-      </c>
-      <c r="D87" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
@@ -3811,13 +3811,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
+        <v>260</v>
+      </c>
+      <c r="C88" t="s">
         <v>261</v>
       </c>
-      <c r="C88" t="s">
+      <c r="D88" t="s">
         <v>262</v>
-      </c>
-      <c r="D88" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
@@ -3825,13 +3825,13 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
+        <v>263</v>
+      </c>
+      <c r="C89" t="s">
         <v>264</v>
       </c>
-      <c r="C89" t="s">
+      <c r="D89" t="s">
         <v>265</v>
-      </c>
-      <c r="D89" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
@@ -3839,13 +3839,13 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
+        <v>266</v>
+      </c>
+      <c r="C90" t="s">
         <v>267</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>268</v>
-      </c>
-      <c r="D90" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
@@ -3853,13 +3853,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
+        <v>269</v>
+      </c>
+      <c r="C91" t="s">
         <v>270</v>
       </c>
-      <c r="C91" t="s">
+      <c r="D91" t="s">
         <v>271</v>
-      </c>
-      <c r="D91" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
@@ -3867,13 +3867,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
+        <v>272</v>
+      </c>
+      <c r="C92" t="s">
         <v>273</v>
       </c>
-      <c r="C92" t="s">
+      <c r="D92" t="s">
         <v>274</v>
-      </c>
-      <c r="D92" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
@@ -3881,13 +3881,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
+        <v>275</v>
+      </c>
+      <c r="C93" t="s">
         <v>276</v>
       </c>
-      <c r="C93" t="s">
+      <c r="D93" t="s">
         <v>277</v>
-      </c>
-      <c r="D93" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
@@ -3895,13 +3895,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
+        <v>278</v>
+      </c>
+      <c r="C94" t="s">
         <v>279</v>
       </c>
-      <c r="C94" t="s">
+      <c r="D94" t="s">
         <v>280</v>
-      </c>
-      <c r="D94" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
@@ -3909,13 +3909,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
+        <v>281</v>
+      </c>
+      <c r="C95" t="s">
         <v>282</v>
       </c>
-      <c r="C95" t="s">
+      <c r="D95" t="s">
         <v>283</v>
-      </c>
-      <c r="D95" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
@@ -3923,13 +3923,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
+        <v>284</v>
+      </c>
+      <c r="C96" t="s">
         <v>285</v>
       </c>
-      <c r="C96" t="s">
+      <c r="D96" t="s">
         <v>286</v>
-      </c>
-      <c r="D96" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
@@ -3937,13 +3937,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
+        <v>287</v>
+      </c>
+      <c r="C97" t="s">
         <v>288</v>
       </c>
-      <c r="C97" t="s">
+      <c r="D97" t="s">
         <v>289</v>
-      </c>
-      <c r="D97" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
@@ -3951,13 +3951,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
+        <v>290</v>
+      </c>
+      <c r="C98" t="s">
         <v>291</v>
       </c>
-      <c r="C98" t="s">
+      <c r="D98" t="s">
         <v>292</v>
-      </c>
-      <c r="D98" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
@@ -3965,13 +3965,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
+        <v>293</v>
+      </c>
+      <c r="C99" t="s">
         <v>294</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>295</v>
-      </c>
-      <c r="D99" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
@@ -3979,13 +3979,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
+        <v>296</v>
+      </c>
+      <c r="C100" t="s">
         <v>297</v>
       </c>
-      <c r="C100" t="s">
+      <c r="D100" t="s">
         <v>298</v>
-      </c>
-      <c r="D100" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
@@ -3993,13 +3993,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
+        <v>299</v>
+      </c>
+      <c r="C101" t="s">
         <v>300</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>301</v>
-      </c>
-      <c r="D101" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
@@ -4007,13 +4007,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
+        <v>302</v>
+      </c>
+      <c r="C102" t="s">
         <v>303</v>
       </c>
-      <c r="C102" t="s">
+      <c r="D102" t="s">
         <v>304</v>
-      </c>
-      <c r="D102" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
@@ -4021,13 +4021,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
+        <v>305</v>
+      </c>
+      <c r="C103" t="s">
         <v>306</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>307</v>
-      </c>
-      <c r="D103" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
@@ -4035,13 +4035,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
+        <v>308</v>
+      </c>
+      <c r="C104" t="s">
         <v>309</v>
       </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
         <v>310</v>
-      </c>
-      <c r="D104" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
@@ -4049,13 +4049,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
+        <v>311</v>
+      </c>
+      <c r="C105" t="s">
         <v>312</v>
       </c>
-      <c r="C105" t="s">
+      <c r="D105" t="s">
         <v>313</v>
-      </c>
-      <c r="D105" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
@@ -4063,13 +4063,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
+        <v>314</v>
+      </c>
+      <c r="C106" t="s">
         <v>315</v>
       </c>
-      <c r="C106" t="s">
+      <c r="D106" t="s">
         <v>316</v>
-      </c>
-      <c r="D106" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
@@ -4077,13 +4077,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
+        <v>317</v>
+      </c>
+      <c r="C107" t="s">
         <v>318</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>319</v>
-      </c>
-      <c r="D107" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
@@ -4091,13 +4091,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
+        <v>320</v>
+      </c>
+      <c r="C108" t="s">
         <v>321</v>
       </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
         <v>322</v>
-      </c>
-      <c r="D108" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
@@ -4105,13 +4105,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
+        <v>323</v>
+      </c>
+      <c r="C109" t="s">
         <v>324</v>
       </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>325</v>
-      </c>
-      <c r="D109" t="s">
-        <v>326</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
@@ -4119,13 +4119,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
+        <v>326</v>
+      </c>
+      <c r="C110" t="s">
         <v>327</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>328</v>
-      </c>
-      <c r="D110" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
@@ -4133,13 +4133,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
+        <v>329</v>
+      </c>
+      <c r="C111" t="s">
         <v>330</v>
       </c>
-      <c r="C111" t="s">
+      <c r="D111" t="s">
         <v>331</v>
-      </c>
-      <c r="D111" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
@@ -4147,13 +4147,13 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
+        <v>332</v>
+      </c>
+      <c r="C112" t="s">
         <v>333</v>
       </c>
-      <c r="C112" t="s">
+      <c r="D112" t="s">
         <v>334</v>
-      </c>
-      <c r="D112" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.25">
@@ -4161,13 +4161,13 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
+        <v>335</v>
+      </c>
+      <c r="C113" t="s">
         <v>336</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>337</v>
-      </c>
-      <c r="D113" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
@@ -4175,13 +4175,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
+        <v>338</v>
+      </c>
+      <c r="C114" t="s">
         <v>339</v>
       </c>
-      <c r="C114" t="s">
+      <c r="D114" t="s">
         <v>340</v>
-      </c>
-      <c r="D114" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
@@ -4189,13 +4189,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
+        <v>341</v>
+      </c>
+      <c r="C115" t="s">
         <v>342</v>
       </c>
-      <c r="C115" t="s">
+      <c r="D115" t="s">
         <v>343</v>
-      </c>
-      <c r="D115" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
@@ -4203,13 +4203,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
+        <v>344</v>
+      </c>
+      <c r="C116" t="s">
         <v>345</v>
       </c>
-      <c r="C116" t="s">
+      <c r="D116" t="s">
         <v>346</v>
-      </c>
-      <c r="D116" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
@@ -4217,13 +4217,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
+        <v>347</v>
+      </c>
+      <c r="C117" t="s">
         <v>348</v>
       </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
         <v>349</v>
-      </c>
-      <c r="D117" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
@@ -4231,13 +4231,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
+        <v>350</v>
+      </c>
+      <c r="C118" t="s">
         <v>351</v>
       </c>
-      <c r="C118" t="s">
+      <c r="D118" t="s">
         <v>352</v>
-      </c>
-      <c r="D118" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
@@ -4245,13 +4245,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
+        <v>353</v>
+      </c>
+      <c r="C119" t="s">
         <v>354</v>
       </c>
-      <c r="C119" t="s">
+      <c r="D119" t="s">
         <v>355</v>
-      </c>
-      <c r="D119" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
@@ -4259,13 +4259,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
+        <v>356</v>
+      </c>
+      <c r="C120" t="s">
         <v>357</v>
       </c>
-      <c r="C120" t="s">
+      <c r="D120" t="s">
         <v>358</v>
-      </c>
-      <c r="D120" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
@@ -4273,13 +4273,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
+        <v>359</v>
+      </c>
+      <c r="C121" t="s">
         <v>360</v>
       </c>
-      <c r="C121" t="s">
+      <c r="D121" t="s">
         <v>361</v>
-      </c>
-      <c r="D121" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
@@ -4287,13 +4287,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
+        <v>362</v>
+      </c>
+      <c r="C122" t="s">
         <v>363</v>
       </c>
-      <c r="C122" t="s">
+      <c r="D122" t="s">
         <v>364</v>
-      </c>
-      <c r="D122" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
@@ -4301,13 +4301,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
+        <v>365</v>
+      </c>
+      <c r="C123" t="s">
         <v>366</v>
       </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>367</v>
-      </c>
-      <c r="D123" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
@@ -4315,13 +4315,13 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
+        <v>368</v>
+      </c>
+      <c r="C124" t="s">
         <v>369</v>
       </c>
-      <c r="C124" t="s">
+      <c r="D124" t="s">
         <v>370</v>
-      </c>
-      <c r="D124" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
@@ -4329,13 +4329,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
+        <v>371</v>
+      </c>
+      <c r="C125" t="s">
         <v>372</v>
       </c>
-      <c r="C125" t="s">
+      <c r="D125" t="s">
         <v>373</v>
-      </c>
-      <c r="D125" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
@@ -4343,13 +4343,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
+        <v>374</v>
+      </c>
+      <c r="C126" t="s">
         <v>375</v>
       </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>376</v>
-      </c>
-      <c r="D126" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
@@ -4357,13 +4357,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
+        <v>377</v>
+      </c>
+      <c r="C127" t="s">
         <v>378</v>
       </c>
-      <c r="C127" t="s">
+      <c r="D127" t="s">
         <v>379</v>
-      </c>
-      <c r="D127" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
@@ -4371,13 +4371,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
+        <v>380</v>
+      </c>
+      <c r="C128" t="s">
         <v>381</v>
       </c>
-      <c r="C128" t="s">
+      <c r="D128" t="s">
         <v>382</v>
-      </c>
-      <c r="D128" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
@@ -4385,13 +4385,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
+        <v>383</v>
+      </c>
+      <c r="C129" t="s">
         <v>384</v>
       </c>
-      <c r="C129" t="s">
+      <c r="D129" t="s">
         <v>385</v>
-      </c>
-      <c r="D129" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
@@ -4399,13 +4399,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
+        <v>386</v>
+      </c>
+      <c r="C130" t="s">
         <v>387</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>388</v>
-      </c>
-      <c r="D130" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
@@ -4413,13 +4413,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
+        <v>389</v>
+      </c>
+      <c r="C131" t="s">
         <v>390</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
         <v>391</v>
-      </c>
-      <c r="D131" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
@@ -4427,13 +4427,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
+        <v>392</v>
+      </c>
+      <c r="C132" t="s">
         <v>393</v>
       </c>
-      <c r="C132" t="s">
+      <c r="D132" t="s">
         <v>394</v>
-      </c>
-      <c r="D132" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
@@ -4441,13 +4441,13 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
+        <v>395</v>
+      </c>
+      <c r="C133" t="s">
         <v>396</v>
       </c>
-      <c r="C133" t="s">
+      <c r="D133" t="s">
         <v>397</v>
-      </c>
-      <c r="D133" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
@@ -4455,13 +4455,13 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
+        <v>398</v>
+      </c>
+      <c r="C134" t="s">
         <v>399</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
         <v>400</v>
-      </c>
-      <c r="D134" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
@@ -4469,13 +4469,13 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
+        <v>401</v>
+      </c>
+      <c r="C135" t="s">
         <v>402</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>403</v>
-      </c>
-      <c r="D135" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
@@ -4483,13 +4483,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
+        <v>404</v>
+      </c>
+      <c r="C136" t="s">
         <v>405</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>406</v>
-      </c>
-      <c r="D136" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
@@ -4497,13 +4497,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
+        <v>407</v>
+      </c>
+      <c r="C137" t="s">
         <v>408</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>409</v>
-      </c>
-      <c r="D137" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
@@ -4511,13 +4511,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
+        <v>410</v>
+      </c>
+      <c r="C138" t="s">
         <v>411</v>
       </c>
-      <c r="C138" t="s">
+      <c r="D138" t="s">
         <v>412</v>
-      </c>
-      <c r="D138" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
@@ -4525,13 +4525,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
+        <v>413</v>
+      </c>
+      <c r="C139" t="s">
         <v>414</v>
       </c>
-      <c r="C139" t="s">
+      <c r="D139" t="s">
         <v>415</v>
-      </c>
-      <c r="D139" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
@@ -4539,13 +4539,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
+        <v>416</v>
+      </c>
+      <c r="C140" t="s">
         <v>417</v>
       </c>
-      <c r="C140" t="s">
-        <v>418</v>
-      </c>
       <c r="D140" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
@@ -4553,13 +4553,13 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
+        <v>418</v>
+      </c>
+      <c r="C141" t="s">
         <v>419</v>
       </c>
-      <c r="C141" t="s">
+      <c r="D141" t="s">
         <v>420</v>
-      </c>
-      <c r="D141" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
@@ -4567,13 +4567,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
+        <v>421</v>
+      </c>
+      <c r="C142" t="s">
         <v>422</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
         <v>423</v>
-      </c>
-      <c r="D142" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
@@ -4581,13 +4581,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
+        <v>424</v>
+      </c>
+      <c r="C143" t="s">
         <v>425</v>
       </c>
-      <c r="C143" t="s">
+      <c r="D143" t="s">
         <v>426</v>
-      </c>
-      <c r="D143" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
@@ -4595,13 +4595,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
+        <v>427</v>
+      </c>
+      <c r="C144" t="s">
         <v>428</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
         <v>429</v>
-      </c>
-      <c r="D144" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
@@ -4609,13 +4609,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
+        <v>430</v>
+      </c>
+      <c r="C145" t="s">
         <v>431</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>432</v>
-      </c>
-      <c r="D145" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
@@ -4623,13 +4623,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
+        <v>433</v>
+      </c>
+      <c r="C146" t="s">
         <v>434</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
         <v>435</v>
-      </c>
-      <c r="D146" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
@@ -4637,13 +4637,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
+        <v>436</v>
+      </c>
+      <c r="C147" t="s">
         <v>437</v>
       </c>
-      <c r="C147" t="s">
+      <c r="D147" t="s">
         <v>438</v>
-      </c>
-      <c r="D147" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
@@ -4651,13 +4651,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
+        <v>439</v>
+      </c>
+      <c r="C148" t="s">
         <v>440</v>
       </c>
-      <c r="C148" t="s">
+      <c r="D148" t="s">
         <v>441</v>
-      </c>
-      <c r="D148" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
@@ -4665,13 +4665,13 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
+        <v>442</v>
+      </c>
+      <c r="C149" t="s">
         <v>443</v>
       </c>
-      <c r="C149" t="s">
+      <c r="D149" t="s">
         <v>444</v>
-      </c>
-      <c r="D149" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
@@ -4679,13 +4679,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
+        <v>445</v>
+      </c>
+      <c r="C150" t="s">
         <v>446</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
         <v>447</v>
-      </c>
-      <c r="D150" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
@@ -4693,13 +4693,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
+        <v>448</v>
+      </c>
+      <c r="C151" t="s">
         <v>449</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
         <v>450</v>
-      </c>
-      <c r="D151" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
@@ -4707,13 +4707,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
+        <v>451</v>
+      </c>
+      <c r="C152" t="s">
         <v>452</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
         <v>453</v>
-      </c>
-      <c r="D152" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
@@ -4721,13 +4721,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
+        <v>454</v>
+      </c>
+      <c r="C153" t="s">
         <v>455</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
         <v>456</v>
-      </c>
-      <c r="D153" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
@@ -4735,13 +4735,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
+        <v>457</v>
+      </c>
+      <c r="C154" t="s">
         <v>458</v>
       </c>
-      <c r="C154" t="s">
+      <c r="D154" t="s">
         <v>459</v>
-      </c>
-      <c r="D154" t="s">
-        <v>460</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
@@ -4749,13 +4749,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
+        <v>460</v>
+      </c>
+      <c r="C155" t="s">
         <v>461</v>
       </c>
-      <c r="C155" t="s">
+      <c r="D155" t="s">
         <v>462</v>
-      </c>
-      <c r="D155" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
@@ -4763,13 +4763,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
+        <v>463</v>
+      </c>
+      <c r="C156" t="s">
         <v>464</v>
       </c>
-      <c r="C156" t="s">
+      <c r="D156" t="s">
         <v>465</v>
-      </c>
-      <c r="D156" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
@@ -4777,13 +4777,13 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
+        <v>466</v>
+      </c>
+      <c r="C157" t="s">
         <v>467</v>
       </c>
-      <c r="C157" t="s">
+      <c r="D157" t="s">
         <v>468</v>
-      </c>
-      <c r="D157" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
@@ -4791,13 +4791,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
+        <v>469</v>
+      </c>
+      <c r="C158" t="s">
         <v>470</v>
       </c>
-      <c r="C158" t="s">
+      <c r="D158" t="s">
         <v>471</v>
-      </c>
-      <c r="D158" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
@@ -4805,13 +4805,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
+        <v>472</v>
+      </c>
+      <c r="C159" t="s">
         <v>473</v>
       </c>
-      <c r="C159" t="s">
+      <c r="D159" t="s">
         <v>474</v>
-      </c>
-      <c r="D159" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
@@ -4819,13 +4819,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
+        <v>475</v>
+      </c>
+      <c r="C160" t="s">
         <v>476</v>
       </c>
-      <c r="C160" t="s">
+      <c r="D160" t="s">
         <v>477</v>
-      </c>
-      <c r="D160" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
@@ -4833,13 +4833,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
+        <v>478</v>
+      </c>
+      <c r="C161" t="s">
         <v>479</v>
       </c>
-      <c r="C161" t="s">
+      <c r="D161" t="s">
         <v>480</v>
-      </c>
-      <c r="D161" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
@@ -4847,13 +4847,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
+        <v>481</v>
+      </c>
+      <c r="C162" t="s">
         <v>482</v>
       </c>
-      <c r="C162" t="s">
+      <c r="D162" t="s">
         <v>483</v>
-      </c>
-      <c r="D162" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
@@ -4861,13 +4861,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
+        <v>484</v>
+      </c>
+      <c r="C163" t="s">
         <v>485</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
         <v>486</v>
-      </c>
-      <c r="D163" t="s">
-        <v>487</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
@@ -4875,13 +4875,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
+        <v>487</v>
+      </c>
+      <c r="C164" t="s">
         <v>488</v>
       </c>
-      <c r="C164" t="s">
+      <c r="D164" t="s">
         <v>489</v>
-      </c>
-      <c r="D164" t="s">
-        <v>490</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
@@ -4889,13 +4889,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
+        <v>490</v>
+      </c>
+      <c r="C165" t="s">
         <v>491</v>
       </c>
-      <c r="C165" t="s">
+      <c r="D165" t="s">
         <v>492</v>
-      </c>
-      <c r="D165" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
@@ -4903,13 +4903,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
+        <v>493</v>
+      </c>
+      <c r="C166" t="s">
         <v>494</v>
       </c>
-      <c r="C166" t="s">
+      <c r="D166" t="s">
         <v>495</v>
-      </c>
-      <c r="D166" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -4917,13 +4917,13 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
+        <v>496</v>
+      </c>
+      <c r="C167" t="s">
         <v>497</v>
       </c>
-      <c r="C167" t="s">
+      <c r="D167" t="s">
         <v>498</v>
-      </c>
-      <c r="D167" t="s">
-        <v>499</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
@@ -4931,13 +4931,13 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
+        <v>499</v>
+      </c>
+      <c r="C168" t="s">
         <v>500</v>
       </c>
-      <c r="C168" t="s">
+      <c r="D168" t="s">
         <v>501</v>
-      </c>
-      <c r="D168" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
@@ -4945,13 +4945,13 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
+        <v>502</v>
+      </c>
+      <c r="C169" t="s">
         <v>503</v>
       </c>
-      <c r="C169" t="s">
+      <c r="D169" t="s">
         <v>504</v>
-      </c>
-      <c r="D169" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
@@ -4959,13 +4959,13 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
+        <v>505</v>
+      </c>
+      <c r="C170" t="s">
         <v>506</v>
       </c>
-      <c r="C170" t="s">
+      <c r="D170" t="s">
         <v>507</v>
-      </c>
-      <c r="D170" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
@@ -4973,13 +4973,13 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
+        <v>508</v>
+      </c>
+      <c r="C171" t="s">
         <v>509</v>
       </c>
-      <c r="C171" t="s">
+      <c r="D171" t="s">
         <v>510</v>
-      </c>
-      <c r="D171" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
@@ -4987,13 +4987,13 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
+        <v>511</v>
+      </c>
+      <c r="C172" t="s">
         <v>512</v>
       </c>
-      <c r="C172" t="s">
+      <c r="D172" t="s">
         <v>513</v>
-      </c>
-      <c r="D172" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
@@ -5001,13 +5001,13 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
+        <v>514</v>
+      </c>
+      <c r="C173" t="s">
         <v>515</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D173" t="s">
         <v>516</v>
-      </c>
-      <c r="D173" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
@@ -5015,13 +5015,13 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
+        <v>517</v>
+      </c>
+      <c r="C174" t="s">
         <v>518</v>
       </c>
-      <c r="C174" t="s">
+      <c r="D174" t="s">
         <v>519</v>
-      </c>
-      <c r="D174" t="s">
-        <v>520</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
@@ -5029,13 +5029,13 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
+        <v>520</v>
+      </c>
+      <c r="C175" t="s">
         <v>521</v>
       </c>
-      <c r="C175" t="s">
+      <c r="D175" t="s">
         <v>522</v>
-      </c>
-      <c r="D175" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
@@ -5043,13 +5043,13 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
+        <v>523</v>
+      </c>
+      <c r="C176" t="s">
         <v>524</v>
       </c>
-      <c r="C176" t="s">
+      <c r="D176" t="s">
         <v>525</v>
-      </c>
-      <c r="D176" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
@@ -5057,13 +5057,13 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
+        <v>526</v>
+      </c>
+      <c r="C177" t="s">
         <v>527</v>
       </c>
-      <c r="C177" t="s">
+      <c r="D177" t="s">
         <v>528</v>
-      </c>
-      <c r="D177" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
@@ -5071,13 +5071,13 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
+        <v>529</v>
+      </c>
+      <c r="C178" t="s">
         <v>530</v>
       </c>
-      <c r="C178" t="s">
+      <c r="D178" t="s">
         <v>531</v>
-      </c>
-      <c r="D178" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
@@ -5085,13 +5085,13 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
+        <v>532</v>
+      </c>
+      <c r="C179" t="s">
         <v>533</v>
       </c>
-      <c r="C179" t="s">
+      <c r="D179" t="s">
         <v>534</v>
-      </c>
-      <c r="D179" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
@@ -5099,13 +5099,13 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
+        <v>535</v>
+      </c>
+      <c r="C180" t="s">
         <v>536</v>
       </c>
-      <c r="C180" t="s">
+      <c r="D180" t="s">
         <v>537</v>
-      </c>
-      <c r="D180" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
@@ -5113,13 +5113,13 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
+        <v>538</v>
+      </c>
+      <c r="C181" t="s">
         <v>539</v>
       </c>
-      <c r="C181" t="s">
+      <c r="D181" t="s">
         <v>540</v>
-      </c>
-      <c r="D181" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
@@ -5127,13 +5127,13 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
+        <v>541</v>
+      </c>
+      <c r="C182" t="s">
         <v>542</v>
       </c>
-      <c r="C182" t="s">
+      <c r="D182" t="s">
         <v>543</v>
-      </c>
-      <c r="D182" t="s">
-        <v>544</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
@@ -5141,13 +5141,13 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
+        <v>544</v>
+      </c>
+      <c r="C183" t="s">
         <v>545</v>
       </c>
-      <c r="C183" t="s">
+      <c r="D183" t="s">
         <v>546</v>
-      </c>
-      <c r="D183" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
@@ -5155,13 +5155,13 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
+        <v>547</v>
+      </c>
+      <c r="C184" t="s">
         <v>548</v>
       </c>
-      <c r="C184" t="s">
+      <c r="D184" t="s">
         <v>549</v>
-      </c>
-      <c r="D184" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
@@ -5169,13 +5169,13 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
+        <v>550</v>
+      </c>
+      <c r="C185" t="s">
         <v>551</v>
       </c>
-      <c r="C185" t="s">
+      <c r="D185" t="s">
         <v>552</v>
-      </c>
-      <c r="D185" t="s">
-        <v>553</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
@@ -5183,13 +5183,13 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
+        <v>553</v>
+      </c>
+      <c r="C186" t="s">
         <v>554</v>
       </c>
-      <c r="C186" t="s">
+      <c r="D186" t="s">
         <v>555</v>
-      </c>
-      <c r="D186" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
@@ -5197,13 +5197,13 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
+        <v>556</v>
+      </c>
+      <c r="C187" t="s">
         <v>557</v>
       </c>
-      <c r="C187" t="s">
+      <c r="D187" t="s">
         <v>558</v>
-      </c>
-      <c r="D187" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
@@ -5211,13 +5211,13 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
+        <v>559</v>
+      </c>
+      <c r="C188" t="s">
         <v>560</v>
       </c>
-      <c r="C188" t="s">
+      <c r="D188" t="s">
         <v>561</v>
-      </c>
-      <c r="D188" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
@@ -5225,13 +5225,13 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
+        <v>562</v>
+      </c>
+      <c r="C189" t="s">
         <v>563</v>
       </c>
-      <c r="C189" t="s">
+      <c r="D189" t="s">
         <v>564</v>
-      </c>
-      <c r="D189" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
@@ -5239,13 +5239,13 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
+        <v>565</v>
+      </c>
+      <c r="C190" t="s">
         <v>566</v>
       </c>
-      <c r="C190" t="s">
+      <c r="D190" t="s">
         <v>567</v>
-      </c>
-      <c r="D190" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
@@ -5253,13 +5253,13 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
+        <v>568</v>
+      </c>
+      <c r="C191" t="s">
         <v>569</v>
       </c>
-      <c r="C191" t="s">
+      <c r="D191" t="s">
         <v>570</v>
-      </c>
-      <c r="D191" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
@@ -5267,13 +5267,13 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
+        <v>571</v>
+      </c>
+      <c r="C192" t="s">
         <v>572</v>
       </c>
-      <c r="C192" t="s">
+      <c r="D192" t="s">
         <v>573</v>
-      </c>
-      <c r="D192" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
@@ -5281,13 +5281,13 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
+        <v>574</v>
+      </c>
+      <c r="C193" t="s">
         <v>575</v>
       </c>
-      <c r="C193" t="s">
+      <c r="D193" t="s">
         <v>576</v>
-      </c>
-      <c r="D193" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
@@ -5295,13 +5295,13 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C194" t="s">
+        <v>577</v>
+      </c>
+      <c r="D194" t="s">
         <v>578</v>
-      </c>
-      <c r="D194" t="s">
-        <v>579</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
@@ -5309,13 +5309,13 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
+        <v>579</v>
+      </c>
+      <c r="C195" t="s">
         <v>580</v>
       </c>
-      <c r="C195" t="s">
+      <c r="D195" t="s">
         <v>581</v>
-      </c>
-      <c r="D195" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
@@ -5323,13 +5323,13 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
+        <v>582</v>
+      </c>
+      <c r="C196" t="s">
         <v>583</v>
       </c>
-      <c r="C196" t="s">
+      <c r="D196" t="s">
         <v>584</v>
-      </c>
-      <c r="D196" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
@@ -5337,13 +5337,13 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
+        <v>585</v>
+      </c>
+      <c r="C197" t="s">
         <v>586</v>
       </c>
-      <c r="C197" t="s">
+      <c r="D197" t="s">
         <v>587</v>
-      </c>
-      <c r="D197" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
@@ -5351,13 +5351,13 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
+        <v>588</v>
+      </c>
+      <c r="C198" t="s">
         <v>589</v>
       </c>
-      <c r="C198" t="s">
+      <c r="D198" t="s">
         <v>590</v>
-      </c>
-      <c r="D198" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
@@ -5365,13 +5365,13 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
+        <v>591</v>
+      </c>
+      <c r="C199" t="s">
         <v>592</v>
       </c>
-      <c r="C199" t="s">
+      <c r="D199" t="s">
         <v>593</v>
-      </c>
-      <c r="D199" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
@@ -5379,13 +5379,13 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
+        <v>594</v>
+      </c>
+      <c r="C200" t="s">
         <v>595</v>
       </c>
-      <c r="C200" t="s">
+      <c r="D200" t="s">
         <v>596</v>
-      </c>
-      <c r="D200" t="s">
-        <v>597</v>
       </c>
     </row>
   </sheetData>
